--- a/scripts/canasta_familiar_precios.xlsx
+++ b/scripts/canasta_familiar_precios.xlsx
@@ -1,93 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fis_2025_g2\scripts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E51840-0F7E-4F54-BC52-ECD17F156DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Arroz 1KG</t>
-  </si>
-  <si>
-    <t>Azúcar 1KG</t>
-  </si>
-  <si>
-    <t>Aceite 3L Cocina</t>
-  </si>
-  <si>
-    <t>Huevos 30</t>
-  </si>
-  <si>
-    <t>Leche 1L</t>
-  </si>
-  <si>
-    <t>Pan tajado</t>
-  </si>
-  <si>
-    <t>Papa 1.5KG o 2.5KG</t>
-  </si>
-  <si>
-    <t>Fríjol 500G</t>
-  </si>
-  <si>
-    <t>Olimpica</t>
-  </si>
-  <si>
-    <t>Jumbo</t>
-  </si>
-  <si>
-    <t>Exito</t>
-  </si>
-  <si>
-    <t>2025-05-08</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,333 +424,488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Arroz 1KG</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Azúcar 1KG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Aceite 3L Cocina</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Huevos 30</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leche 1L</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Pan tajado</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Papa 1.5KG o 2.5KG</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fríjol 500G</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Olimpica</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>10201.43</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>4894.29</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>23990</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>20698.75</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>5997.16</v>
       </c>
-      <c r="H2">
-        <v>8344.2900000000009</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="n">
+        <v>8344.290000000001</v>
+      </c>
+      <c r="I2" t="n">
         <v>19154.89</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>4802</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>7952</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>9950</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>924.66</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>23081.67</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>5720.67</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>12270</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>13140</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>7390</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Exito</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>7550.95</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>7705.69</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>42137.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>23626.92</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>7035.25</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>6993.79</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>24485.33</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>7268.87</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olimpica</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>11810</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>4894.29</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>23990</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>22711.25</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>5969.72</v>
       </c>
-      <c r="H5">
-        <v>8374.2900000000009</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="n">
+        <v>8374.290000000001</v>
+      </c>
+      <c r="I5" t="n">
         <v>19154.89</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>4802</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>7952</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>9950</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>924.66</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>23081.67</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>5720.67</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>12270</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>13140</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>7390</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Exito</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>7577.14</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>7643.54</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>42137.5</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>24872.73</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>7035.25</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>7034.83</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>24485.33</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>7268.87</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>9932.86</v>
-      </c>
-      <c r="D8">
-        <v>5242.8599999999997</v>
-      </c>
-      <c r="E8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olimpica</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9932.860000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5242.86</v>
+      </c>
+      <c r="E8" t="n">
         <v>23990</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>26500</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>5702.1</v>
       </c>
-      <c r="H8">
-        <v>8374.2900000000009</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="n">
+        <v>8374.290000000001</v>
+      </c>
+      <c r="I8" t="n">
         <v>20947</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>5175</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>7952</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>9950</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>924.66</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>23081.67</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>4853.72</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>11558.57</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>13720</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>7390</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Exito</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>7606.19</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>7592.77</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>42137.5</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>23626.92</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>7035.25</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>6970.33</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>24352</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
+        <v>7268.87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Olimpica</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10150</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5253.33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23990</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22492.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6062.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8374.290000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14735.62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4633.33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8235</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9950</v>
+      </c>
+      <c r="E12" t="n">
+        <v>924.66</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23081.67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4853.72</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11558.57</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13720</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Exito</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>7455</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7592.77</v>
+      </c>
+      <c r="E13" t="n">
+        <v>42175</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23351.92</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6881.12</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6946.33</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24352</v>
+      </c>
+      <c r="J13" t="n">
         <v>7268.87</v>
       </c>
     </row>

--- a/scripts/canasta_familiar_precios.xlsx
+++ b/scripts/canasta_familiar_precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,6 +909,114 @@
         <v>7268.87</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Olimpica</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>11952</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5253.33</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23990</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21478</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6062.84</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8260</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14985</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4633.33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8404</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9950</v>
+      </c>
+      <c r="E15" t="n">
+        <v>924.66</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24190</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4853.72</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12453.33</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12570</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7365</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Exito</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6993.14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7610.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>42175</v>
+      </c>
+      <c r="F16" t="n">
+        <v>23389.58</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6834.12</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6926.33</v>
+      </c>
+      <c r="I16" t="n">
+        <v>24304</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7268.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scripts/canasta_familiar_precios.xlsx
+++ b/scripts/canasta_familiar_precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,6 +1017,114 @@
         <v>7268.87</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Olimpica</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>9960</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5332.86</v>
+      </c>
+      <c r="E17" t="n">
+        <v>23990</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18690</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5497.24</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6892</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14808.57</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4436.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>8404</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E18" t="n">
+        <v>924.66</v>
+      </c>
+      <c r="F18" t="n">
+        <v>23165</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4853.72</v>
+      </c>
+      <c r="H18" t="n">
+        <v>12276.67</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12140</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7365</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Exito</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>7077.43</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7846.67</v>
+      </c>
+      <c r="E19" t="n">
+        <v>42175</v>
+      </c>
+      <c r="F19" t="n">
+        <v>23389.58</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6881.12</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6855.52</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25770.67</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7210.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scripts/canasta_familiar_precios.xlsx
+++ b/scripts/canasta_familiar_precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,6 +1125,114 @@
         <v>7210.17</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Olimpica</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4686.57</v>
+      </c>
+      <c r="E20" t="n">
+        <v>21840.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19478.57</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4784.75</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7826.67</v>
+      </c>
+      <c r="I20" t="n">
+        <v>17584.44</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4743.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>8362</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E21" t="n">
+        <v>924.66</v>
+      </c>
+      <c r="F21" t="n">
+        <v>23165</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5228.31</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11154.29</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10684</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7365</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Exito</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7069.71</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7742.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>42175</v>
+      </c>
+      <c r="F22" t="n">
+        <v>22839.29</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6984.75</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6962</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25382.67</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6910</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scripts/canasta_familiar_precios.xlsx
+++ b/scripts/canasta_familiar_precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,6 +1233,222 @@
         <v>6910</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Olimpica</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>12028</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5279</v>
+      </c>
+      <c r="E23" t="n">
+        <v>22790</v>
+      </c>
+      <c r="F23" t="n">
+        <v>19471.43</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6392.23</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8378.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20113.33</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>7108.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E24" t="n">
+        <v>924.66</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23165</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3189.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8608.33</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13720</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7015</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Exito</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7044</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7777.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>41462.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>22869.23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6844.25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6916.45</v>
+      </c>
+      <c r="I25" t="n">
+        <v>22750.67</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6622.57</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Olimpica</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>11298</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4972.6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22790</v>
+      </c>
+      <c r="F26" t="n">
+        <v>22825</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5810</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7408</v>
+      </c>
+      <c r="I26" t="n">
+        <v>19001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7108.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E27" t="n">
+        <v>924.66</v>
+      </c>
+      <c r="F27" t="n">
+        <v>22310.67</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2696.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8608.33</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12570</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7015</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Exito</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7309.85</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7777.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>41462.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>22869.23</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6961.75</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6916.45</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25628</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6622.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
